--- a/NhapHangV2.API/Template/StaffIncomeTemplate.xlsx
+++ b/NhapHangV2.API/Template/StaffIncomeTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\NhapHangCore\NhapHangV2.API\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\nhaphangv2.monamedia.net\NhapHangV2.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A70B8C-2F38-4C29-AAFC-AC3403CD4CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092B5EF6-C9EA-4A5C-8B5E-E9A0F0CA287D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{63F030DA-4889-4B42-B291-5F410637C945}"/>
   </bookViews>
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -137,6 +137,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,14 +462,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.77734375" style="1"/>
@@ -476,7 +482,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -499,7 +505,7 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
